--- a/MenstruAccion/cuanto_cuesta_menstruar/2022 Septiembre/Fuentes/serie_precios_pgm.xlsx
+++ b/MenstruAccion/cuanto_cuesta_menstruar/2022 Septiembre/Fuentes/serie_precios_pgm.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\espin\OneDrive\Documents\Lu\Ecofeminita\EcoFemiData\EcoFemiData\EcoFemiData\MenstruAccion\cuanto_cuesta_menstruar\2022 Marzo\Fuentes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\espin\OneDrive\Documents\Lu\Ecofeminita\EcoFemiData\EcoFemiData\EcoFemiData\MenstruAccion\cuanto_cuesta_menstruar\2022 Septiembre\Fuentes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89D68C6-5E7D-494D-9D22-5ED6AD2FFC8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8DE5C3-66B4-41A1-BB75-DD541E09F579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -86,9 +86,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -475,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -487,51 +486,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>43525</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>6.75</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>7.44</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>43709</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>8.6300000000000008</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>10.37</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>43891</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>10.26</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>13.22</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>44075</v>
       </c>
       <c r="B5">
@@ -542,7 +541,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>44256</v>
       </c>
       <c r="B6">
@@ -553,7 +552,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>44440</v>
       </c>
       <c r="B7">
@@ -564,14 +563,25 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>44621</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>17.100000000000001</v>
       </c>
       <c r="C8">
         <v>18.57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>44805</v>
+      </c>
+      <c r="B9">
+        <v>25.78</v>
+      </c>
+      <c r="C9">
+        <v>27.08</v>
       </c>
     </row>
   </sheetData>
